--- a/Results_envfit_RDA.xlsx
+++ b/Results_envfit_RDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E805A86C-440E-F14C-A48D-AA57DE484C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FE9E72-3D2D-904F-AD0A-36440B582EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="460" windowWidth="17580" windowHeight="20960" xr2:uid="{FB9B47C9-5369-634D-BCCD-D64892B865A4}"/>
+    <workbookView xWindow="10980" yWindow="460" windowWidth="17580" windowHeight="20960" xr2:uid="{FB9B47C9-5369-634D-BCCD-D64892B865A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="121">
   <si>
     <t>Experiment</t>
   </si>
@@ -381,6 +378,24 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Updated_12_20_22</t>
+  </si>
+  <si>
+    <t>sed_Mn</t>
+  </si>
+  <si>
+    <t>NH4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No data still</t>
+  </si>
+  <si>
+    <t>PO4</t>
   </si>
 </sst>
 </file>
@@ -732,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F340898-5E53-9B43-A43E-0B8F430233E8}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -748,9 +763,10 @@
     <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +794,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -804,8 +823,11 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -827,8 +849,11 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -845,7 +870,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -862,7 +887,7 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -879,7 +904,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -899,7 +924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -919,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -936,7 +961,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -953,7 +978,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -970,7 +995,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -987,7 +1012,7 @@
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1047,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -1064,7 +1089,7 @@
         <v>0.52600000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1084,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1121,7 +1146,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1163,7 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1166,8 +1191,11 @@
       <c r="I21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1220,11 @@
       <c r="I22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -1215,8 +1246,11 @@
       <c r="H23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>43</v>
       </c>
@@ -1259,7 +1293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>38</v>
       </c>
@@ -1279,7 +1313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -1302,7 +1336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>48</v>
       </c>
@@ -1319,7 +1353,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -1339,7 +1373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>50</v>
       </c>
@@ -1356,7 +1390,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>51</v>
       </c>
@@ -1376,7 +1410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>52</v>
       </c>
@@ -1393,7 +1427,7 @@
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>53</v>
       </c>
@@ -1410,7 +1444,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -1427,7 +1461,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1452,8 +1486,11 @@
       <c r="I35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -1473,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>48</v>
       </c>
@@ -1493,7 +1530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>49</v>
       </c>
@@ -1513,7 +1550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>50</v>
       </c>
@@ -1533,7 +1570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>57</v>
       </c>
@@ -1553,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>58</v>
       </c>
@@ -1570,7 +1607,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>59</v>
       </c>
@@ -1587,7 +1624,7 @@
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>60</v>
       </c>
@@ -1604,7 +1641,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>61</v>
       </c>
@@ -1624,7 +1661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1678,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -1666,8 +1703,11 @@
       <c r="I46" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>40</v>
       </c>
@@ -1687,7 +1727,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>28</v>
       </c>
@@ -1707,7 +1747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -1727,7 +1767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>48</v>
       </c>
@@ -1744,7 +1784,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>49</v>
       </c>
@@ -1764,7 +1804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>50</v>
       </c>
@@ -1784,7 +1824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>57</v>
       </c>
@@ -1801,7 +1841,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>58</v>
       </c>
@@ -1821,7 +1861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>59</v>
       </c>
@@ -1841,7 +1881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>60</v>
       </c>
@@ -1858,7 +1898,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>61</v>
       </c>
@@ -1878,7 +1918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>62</v>
       </c>
@@ -1895,7 +1935,7 @@
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -1923,8 +1963,11 @@
       <c r="I59" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>13</v>
       </c>
@@ -1949,8 +1992,11 @@
       <c r="I60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>28</v>
       </c>
@@ -1975,8 +2021,11 @@
       <c r="I61" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>50</v>
       </c>
@@ -2001,8 +2050,11 @@
       <c r="I62" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>75</v>
       </c>
@@ -2027,8 +2079,11 @@
       <c r="I63" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>57</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="I64" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>79</v>
       </c>
@@ -2073,8 +2131,11 @@
       <c r="I65" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>82</v>
       </c>
@@ -2100,7 +2161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>85</v>
       </c>
@@ -2126,7 +2187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>88</v>
       </c>
@@ -2152,7 +2213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>90</v>
       </c>
@@ -2178,7 +2239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>92</v>
       </c>
@@ -2204,7 +2265,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>95</v>
       </c>
@@ -2227,7 +2288,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>98</v>
       </c>
@@ -2250,7 +2311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>100</v>
       </c>
@@ -2273,7 +2334,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>31</v>
       </c>
@@ -2293,7 +2354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>32</v>
       </c>
@@ -2313,7 +2374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>33</v>
       </c>
@@ -2333,7 +2394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>102</v>
       </c>
@@ -2353,7 +2414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>103</v>
       </c>
@@ -2373,7 +2434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>104</v>
       </c>
@@ -2393,7 +2454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>105</v>
       </c>
@@ -2413,7 +2474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>106</v>
       </c>
@@ -2433,7 +2494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -2461,8 +2522,11 @@
       <c r="I82" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>13</v>
       </c>
@@ -2487,8 +2551,11 @@
       <c r="I83" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>28</v>
       </c>
@@ -2514,7 +2581,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>74</v>
       </c>
@@ -2537,7 +2604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -2565,8 +2632,11 @@
       <c r="I86" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>13</v>
       </c>
@@ -2591,8 +2661,11 @@
       <c r="I87" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>28</v>
       </c>
@@ -2617,8 +2690,11 @@
       <c r="I88" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>74</v>
       </c>
@@ -2640,16 +2716,22 @@
       <c r="I89" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>111</v>
       </c>
@@ -2677,8 +2759,11 @@
       <c r="I91" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>28</v>
       </c>
@@ -2693,6 +2778,9 @@
       </c>
       <c r="F92">
         <v>0.26400000000000001</v>
+      </c>
+      <c r="J92" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
